--- a/web/sample_templates/upload_applications.xlsx
+++ b/web/sample_templates/upload_applications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\acs\assets\sample_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\acs\web\sample_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Sr</t>
   </si>
@@ -89,18 +89,6 @@
     <t>Business Send for verification</t>
   </si>
   <si>
-    <t>NOC Address</t>
-  </si>
-  <si>
-    <t>NOC Pincode</t>
-  </si>
-  <si>
-    <t>NOC Triggers</t>
-  </si>
-  <si>
-    <t>NOC Send for verification</t>
-  </si>
-  <si>
     <t>Salaried</t>
   </si>
   <si>
@@ -120,6 +108,78 @@
   </si>
   <si>
     <t>lastname</t>
+  </si>
+  <si>
+    <t>Resi/Office Address</t>
+  </si>
+  <si>
+    <t>Resi/Office Pincode</t>
+  </si>
+  <si>
+    <t>Resi/Office Triggers</t>
+  </si>
+  <si>
+    <t>Resi/Office Send for verification</t>
+  </si>
+  <si>
+    <t>Builder Profile Address</t>
+  </si>
+  <si>
+    <t>Builder Profile Pincode</t>
+  </si>
+  <si>
+    <t>Builder Profile Triggers</t>
+  </si>
+  <si>
+    <t>Builder Profile Send for verification</t>
+  </si>
+  <si>
+    <t>NOC (Business/Conditional) Address</t>
+  </si>
+  <si>
+    <t>NOC (Business/Conditional) Pincode</t>
+  </si>
+  <si>
+    <t>NOC (Business/Conditional) Triggers</t>
+  </si>
+  <si>
+    <t>NOC (Business/Conditional) Send for verification</t>
+  </si>
+  <si>
+    <t>Property(APF) Address</t>
+  </si>
+  <si>
+    <t>Property(APF) Pincode</t>
+  </si>
+  <si>
+    <t>Property(APF) Triggers</t>
+  </si>
+  <si>
+    <t>Property(APF) Send for verification</t>
+  </si>
+  <si>
+    <t>Individual Property Address</t>
+  </si>
+  <si>
+    <t>Individual Property Pincode</t>
+  </si>
+  <si>
+    <t>Individual Property Triggers</t>
+  </si>
+  <si>
+    <t>Individual Property Send for verification</t>
+  </si>
+  <si>
+    <t>NOC (Society) Address</t>
+  </si>
+  <si>
+    <t>NOC (Society) Pincode</t>
+  </si>
+  <si>
+    <t>NOC (Society) Triggers</t>
+  </si>
+  <si>
+    <t>NOC (Society) Send for verification</t>
   </si>
 </sst>
 </file>
@@ -127,7 +187,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -178,7 +238,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -187,9 +249,9 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -471,147 +533,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="37.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="34.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="45.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="J2" s="1">
+        <v>42808</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2">
-        <v>42808</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>440013</v>
       </c>
-      <c r="N2" s="3" t="b">
+      <c r="N2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -620,7 +758,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11">
       <formula1>"Salaried, Self-employed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 V2 R2 N2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT2 N2 R2 V2 Z2 AD2 AH2 AL2 AP2">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">

--- a/web/sample_templates/upload_applications.xlsx
+++ b/web/sample_templates/upload_applications.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Sr</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>Alternate Contact No</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>Case Id</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Company Name</t>
   </si>
 </sst>
 </file>
@@ -536,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,44 +563,49 @@
     <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="26.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="37.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="34.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="45.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="37.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="34.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="45.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -599,136 +619,151 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -741,34 +776,35 @@
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="1"/>
+      <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1">
+      <c r="P2" s="1">
         <v>42808</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2">
+      <c r="R2" s="2">
         <v>440013</v>
       </c>
-      <c r="O2" s="2" t="b">
+      <c r="T2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11">
       <formula1>"Salaried, Self-employed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2 O2 S2 W2 AA2 AE2 AI2 AM2 AQ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2 T2 X2 AB2 AF2 AJ2 AN2 AR2 AV2">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
       <formula1>"Resi, Office, Resi/Office"</formula1>
     </dataValidation>
   </dataValidations>
